--- a/_1/TC/Test Case Авторизация_.xlsx
+++ b/_1/TC/Test Case Авторизация_.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8"/>
+    <workbookView xWindow="-435" yWindow="1050" windowWidth="20730" windowHeight="11160" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Aut_1" sheetId="4" r:id="rId1"/>
-    <sheet name="Aut_2" sheetId="6" r:id="rId2"/>
-    <sheet name="Aut_3" sheetId="5" r:id="rId3"/>
-    <sheet name="Aut_4" sheetId="1" r:id="rId4"/>
-    <sheet name="Aut_5_1" sheetId="7" r:id="rId5"/>
-    <sheet name="Aut_5_2" sheetId="10" r:id="rId6"/>
-    <sheet name="Aut_6_3" sheetId="8" r:id="rId7"/>
-    <sheet name="Aut_7" sheetId="3" r:id="rId8"/>
+    <sheet name="Auth_P" sheetId="1" r:id="rId1"/>
+    <sheet name="Auth_Em_0" sheetId="4" r:id="rId2"/>
+    <sheet name="Auth_Em_1" sheetId="5" r:id="rId3"/>
+    <sheet name="Auth_Em_2" sheetId="6" r:id="rId4"/>
+    <sheet name="Auth_5_Vn_2" sheetId="7" r:id="rId5"/>
+    <sheet name="Auth_min_2" sheetId="10" r:id="rId6"/>
+    <sheet name="Auht_n1_1" sheetId="8" r:id="rId7"/>
+    <sheet name="Auth_1" sheetId="3" r:id="rId8"/>
     <sheet name="Шаблон_new" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -199,9 +199,6 @@
     </r>
   </si>
   <si>
-    <t>Test case ID: Aut_1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -273,12 +270,6 @@
     </r>
   </si>
   <si>
-    <t>Test case ID: Aut_3</t>
-  </si>
-  <si>
-    <t>Test case ID: Aut_4</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -298,30 +289,6 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Medium</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Description:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Проверка отправки формы авторизации:
-поле "EMAIL ADDRESS" не валидное пустое
-поле "ПАРОЛЬ" валидное</t>
     </r>
   </si>
   <si>
@@ -417,9 +384,6 @@
     </r>
   </si>
   <si>
-    <t>Test case ID: Aut_2</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -444,9 +408,6 @@
   <si>
     <t>error:  
 "ПАРОЛЬ"  field is required</t>
-  </si>
-  <si>
-    <t>Test case ID: Aut_7</t>
   </si>
   <si>
     <t>1. open URL: "https://ecom-staging-yanair.worldticket.net/customer/account/login/?___store=ru"
@@ -499,9 +460,6 @@
 поле "EMAIL ADDRESS" не валидное ( без @gmail.com)
 поле "ПАРОЛЬ"  валидное</t>
     </r>
-  </si>
-  <si>
-    <t>Test case ID: Aut_5_1</t>
   </si>
   <si>
     <r>
@@ -785,12 +743,6 @@
   </si>
   <si>
     <t>click on "LOG IN" button</t>
-  </si>
-  <si>
-    <t>Test case ID: Aut_5_4</t>
-  </si>
-  <si>
-    <t>Test case ID: Aut_6_3</t>
   </si>
   <si>
     <t>Log in page is opened
@@ -979,6 +931,54 @@
   </si>
   <si>
     <t xml:space="preserve"> Win10(64) Chrome 78.0.3904.108 (Официальная сборка), (64 бит)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Проверка отправки формы авторизации:
+поле "EMAIL ADDRESS" валидное
+поле "ПАРОЛЬ" пустое</t>
+    </r>
+  </si>
+  <si>
+    <t>Test case ID: Auth_1</t>
+  </si>
+  <si>
+    <t>Test case ID: Auth_P</t>
+  </si>
+  <si>
+    <t>Test case ID: Auth_Em_0</t>
+  </si>
+  <si>
+    <t>Test case ID: Auth_Em_1</t>
+  </si>
+  <si>
+    <t>Test case ID: Auth_Em_2</t>
+  </si>
+  <si>
+    <t>Test case ID: Auth_Vn_2</t>
+  </si>
+  <si>
+    <t>Test case ID: Auth_min_2</t>
+  </si>
+  <si>
+    <t>Test case ID: Auth_n1_1</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1205,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1337,6 +1337,76 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1355,78 +1425,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1439,17 +1448,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1460,44 +1463,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1531,6 +1507,33 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8031,7 +8034,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8044,8 +8047,910 @@
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="0.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75">
+      <c r="A1" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75">
+      <c r="A2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" ht="12.75">
+      <c r="A5" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+    </row>
+    <row r="8" spans="1:11" ht="43.5" customHeight="1">
+      <c r="A8" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+    </row>
+    <row r="9" spans="1:11" ht="51" customHeight="1">
+      <c r="A9" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="73"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="63"/>
+      <c r="G11" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="63"/>
+    </row>
+    <row r="12" spans="1:11" ht="117" customHeight="1">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="77"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A13" s="8">
+        <v>2</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="8">
+        <v>3</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="6">
+        <v>1234567</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A15" s="8">
+        <v>4</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="86"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A16" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="12.75">
+      <c r="A17" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I12:I15">
+    <cfRule type="containsText" dxfId="495" priority="101" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I15">
+    <cfRule type="containsText" dxfId="494" priority="102" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I15">
+    <cfRule type="containsText" dxfId="493" priority="103" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I15">
+    <cfRule type="containsText" dxfId="492" priority="104" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="491" priority="100" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="490" priority="99" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="489" priority="98" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="488" priority="97" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="487" priority="96" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="486" priority="95" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="485" priority="94" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="484" priority="93" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="483" priority="92" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="482" priority="91" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="481" priority="90" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="480" priority="89" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="479" priority="88" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="478" priority="87" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="477" priority="86" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="476" priority="85" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="475" priority="84" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="474" priority="83" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="473" priority="82" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="472" priority="81" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="471" priority="80" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="470" priority="79" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="469" priority="78" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="468" priority="77" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="467" priority="76" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="466" priority="75" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="465" priority="74" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="464" priority="73" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="463" priority="72" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="462" priority="71" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="461" priority="70" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="460" priority="69" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="459" priority="68" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="458" priority="67" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="457" priority="66" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="456" priority="65" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="455" priority="64" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="454" priority="63" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="453" priority="62" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="452" priority="61" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="451" priority="60" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="450" priority="59" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="449" priority="58" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="448" priority="57" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="447" priority="56" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="446" priority="55" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="445" priority="54" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="444" priority="53" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="443" priority="52" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="442" priority="51" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="441" priority="50" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="440" priority="49" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="439" priority="48" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="438" priority="47" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="437" priority="46" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="436" priority="45" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="435" priority="44" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="434" priority="43" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="433" priority="42" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="432" priority="41" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="431" priority="40" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="430" priority="39" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="429" priority="38" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="428" priority="37" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="427" priority="36" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="426" priority="35" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="425" priority="34" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="424" priority="33" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="423" priority="32" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="422" priority="31" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="421" priority="30" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="420" priority="29" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="419" priority="28" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="418" priority="27" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="417" priority="26" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="416" priority="25" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="415" priority="24" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="414" priority="23" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="413" priority="22" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="412" priority="21" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="411" priority="20" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="410" priority="19" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="409" priority="18" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="408" priority="17" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="407" priority="16" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="406" priority="15" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="405" priority="14" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="404" priority="13" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="403" priority="12" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="402" priority="11" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="401" priority="10" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="400" priority="9" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="399" priority="8" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="398" priority="7" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="397" priority="6" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="396" priority="5" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="395" priority="4" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="394" priority="3" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="393" priority="2" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="392" priority="1" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Test steps status: Checked, Blocked, Failed, Untested" sqref="I12:I15">
+      <formula1>"Checked,Blocked,Failed,Untested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8065,301 +8970,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="A1" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="66"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="69" t="s">
+      <c r="A4" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="12.75">
-      <c r="A5" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="69" t="s">
+      <c r="A5" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="69" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="69" t="s">
+      <c r="A7" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="1:11" ht="43.5" customHeight="1">
-      <c r="A8" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73" t="s">
+      <c r="A8" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="A9" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="A9" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
       <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="66"/>
+        <v>33</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="63"/>
       <c r="D11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67" t="s">
+      <c r="F11" s="63"/>
+      <c r="G11" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="67" t="s">
+      <c r="J11" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="66"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="1:11" ht="54.75" customHeight="1">
       <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="50"/>
+      <c r="B12" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="76"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
+      <c r="E12" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="77"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
+        <v>16</v>
+      </c>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1">
       <c r="A13" s="8">
         <v>2</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="58"/>
+      <c r="B13" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="55"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
+      <c r="E13" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="81"/>
+        <v>16</v>
+      </c>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1">
       <c r="A14" s="8">
         <v>3</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="58"/>
+      <c r="B14" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="55"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="E14" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="81"/>
+        <v>16</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
     </row>
     <row r="15" spans="1:11" ht="53.25" customHeight="1">
       <c r="A15" s="10">
         <v>4</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="58"/>
+      <c r="B15" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="55"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
+      <c r="E15" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="80"/>
-      <c r="K15" s="81"/>
+        <v>16</v>
+      </c>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
     </row>
     <row r="16" spans="1:11" ht="51.75" customHeight="1">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="82"/>
     </row>
     <row r="17" spans="1:11" ht="12.75">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="79"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="B22" s="4"/>
@@ -8371,6 +9276,33 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:K5"/>
     <mergeCell ref="A17:K17"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -8380,33 +9312,6 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <conditionalFormatting sqref="I12:I15">
     <cfRule type="containsText" dxfId="603" priority="12" operator="containsText" text="Untested">
@@ -8478,15 +9383,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8506,305 +9411,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="A1" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="66"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="69" t="s">
+      <c r="A4" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="12.75">
-      <c r="A5" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="69" t="s">
+      <c r="A5" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="69" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="69" t="s">
+      <c r="A7" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="1:11" ht="43.5" customHeight="1">
-      <c r="A8" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73" t="s">
+      <c r="A8" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="A9" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86"/>
+      <c r="A9" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="87"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
       <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="66"/>
+        <v>33</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="63"/>
       <c r="D11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67" t="s">
+      <c r="F11" s="63"/>
+      <c r="G11" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="63"/>
+      <c r="I11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="67" t="s">
+      <c r="J11" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="66"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="1:11" ht="38.25">
       <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="50"/>
+      <c r="B12" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="76"/>
       <c r="D12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
+        <v>39</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="77"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-    </row>
-    <row r="13" spans="1:11" ht="28.5" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1">
       <c r="A13" s="8">
         <v>2</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
+      <c r="B13" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="81"/>
+        <v>16</v>
+      </c>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1">
       <c r="A14" s="8">
         <v>3</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="B14" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="6">
+        <v>1234567</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="81"/>
+        <v>16</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
     </row>
     <row r="15" spans="1:11" ht="53.25" customHeight="1">
       <c r="A15" s="8">
         <v>4</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="58"/>
+      <c r="B15" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="55"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
+      <c r="E15" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="86"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="80"/>
-      <c r="K15" s="81"/>
+        <v>16</v>
+      </c>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
     </row>
     <row r="16" spans="1:11" ht="51.75" customHeight="1">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
     </row>
     <row r="17" spans="1:11" ht="12.75">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="79"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="B19" s="4"/>
@@ -8814,28 +9719,22 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="25.5">
-      <c r="D22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A17:K17"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A17:K17"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K3"/>
     <mergeCell ref="A4:D4"/>
@@ -8848,194 +9747,314 @@
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="E8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="591" priority="36" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="555" priority="60" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="590" priority="35" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="554" priority="59" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="589" priority="34" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="553" priority="58" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="588" priority="33" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="552" priority="57" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="587" priority="32" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="551" priority="56" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="586" priority="31" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="550" priority="55" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="585" priority="30" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="549" priority="54" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="584" priority="29" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="548" priority="53" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="583" priority="28" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="547" priority="52" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="582" priority="27" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="546" priority="51" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="581" priority="26" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="545" priority="50" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="580" priority="25" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="544" priority="49" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="579" priority="24" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="543" priority="48" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="578" priority="23" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="542" priority="47" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="577" priority="22" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="541" priority="46" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="576" priority="21" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="540" priority="45" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="575" priority="20" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="539" priority="44" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="574" priority="19" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="538" priority="43" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="573" priority="18" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="537" priority="42" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="572" priority="17" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="536" priority="41" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="571" priority="16" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="535" priority="40" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="570" priority="15" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="534" priority="39" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="569" priority="14" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="533" priority="38" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="568" priority="13" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="532" priority="37" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="567" priority="12" operator="containsText" text="Untested">
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="531" priority="36" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="530" priority="35" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="529" priority="34" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="528" priority="33" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="527" priority="32" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="566" priority="11" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="526" priority="31" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="565" priority="10" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="525" priority="30" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="564" priority="9" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="524" priority="29" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="563" priority="8" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="523" priority="28" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="562" priority="7" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="522" priority="27" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="561" priority="6" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="521" priority="26" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="560" priority="5" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="520" priority="25" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="559" priority="4" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="519" priority="24" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="558" priority="3" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="518" priority="23" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="557" priority="2" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="517" priority="22" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="556" priority="1" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="516" priority="21" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="515" priority="20" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="514" priority="19" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="513" priority="18" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="512" priority="17" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="511" priority="16" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="510" priority="15" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="509" priority="14" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="508" priority="13" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="507" priority="12" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="506" priority="11" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="505" priority="10" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="504" priority="9" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="503" priority="8" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="502" priority="7" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="501" priority="6" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="500" priority="5" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="499" priority="4" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="498" priority="3" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="497" priority="2" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="496" priority="1" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9049,15 +10068,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9077,305 +10096,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="A1" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="66"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="69" t="s">
+      <c r="A4" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="12.75">
-      <c r="A5" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="69" t="s">
+      <c r="A5" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="69" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="69" t="s">
+      <c r="A7" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="1:11" ht="43.5" customHeight="1">
-      <c r="A8" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73" t="s">
+      <c r="A8" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="A9" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="A9" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
       <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="66"/>
+        <v>33</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="63"/>
       <c r="D11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67" t="s">
+      <c r="F11" s="63"/>
+      <c r="G11" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="9" t="s">
+      <c r="H11" s="63"/>
+      <c r="I11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="67" t="s">
+      <c r="J11" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="66"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="1:11" ht="38.25">
       <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="50"/>
+      <c r="B12" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="76"/>
       <c r="D12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
+        <v>39</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="77"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
+    </row>
+    <row r="13" spans="1:11" ht="28.5" customHeight="1">
       <c r="A13" s="8">
         <v>2</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
+      <c r="B13" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="81"/>
+        <v>16</v>
+      </c>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1">
       <c r="A14" s="8">
         <v>3</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="6">
-        <v>1234567</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="B14" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="81"/>
+        <v>16</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
     </row>
     <row r="15" spans="1:11" ht="53.25" customHeight="1">
       <c r="A15" s="8">
         <v>4</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="58"/>
+      <c r="B15" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="55"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
+      <c r="E15" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="86"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="80"/>
-      <c r="K15" s="81"/>
+        <v>16</v>
+      </c>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
     </row>
     <row r="16" spans="1:11" ht="51.75" customHeight="1">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
     </row>
     <row r="17" spans="1:11" ht="12.75">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="79"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="B19" s="4"/>
@@ -9385,22 +10404,22 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
+    <row r="22" spans="1:11" ht="25.5">
+      <c r="D22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="A17:K17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K3"/>
     <mergeCell ref="A4:D4"/>
@@ -9413,1216 +10432,200 @@
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="E8:K8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-  </mergeCells>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="555" priority="60" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="554" priority="59" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="553" priority="58" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="552" priority="57" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="551" priority="56" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="550" priority="55" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="549" priority="54" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="548" priority="53" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="547" priority="52" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="546" priority="51" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="545" priority="50" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="544" priority="49" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="543" priority="48" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="542" priority="47" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="541" priority="46" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="540" priority="45" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="539" priority="44" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="538" priority="43" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="537" priority="42" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="536" priority="41" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="535" priority="40" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="534" priority="39" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="533" priority="38" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="532" priority="37" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="531" priority="36" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="530" priority="35" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="529" priority="34" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="528" priority="33" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="527" priority="32" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="526" priority="31" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="525" priority="30" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="524" priority="29" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="523" priority="28" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="522" priority="27" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="521" priority="26" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="520" priority="25" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="519" priority="24" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="518" priority="23" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="517" priority="22" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="516" priority="21" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="515" priority="20" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="514" priority="19" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="513" priority="18" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="512" priority="17" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="511" priority="16" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="510" priority="15" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="509" priority="14" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="508" priority="13" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="507" priority="12" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="506" priority="11" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="505" priority="10" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="504" priority="9" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="503" priority="8" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="502" priority="7" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="501" priority="6" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="500" priority="5" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="499" priority="4" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="498" priority="3" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="497" priority="2" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="496" priority="1" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Test steps status: Checked, Blocked, Failed, Untested" sqref="I12:I15">
-      <formula1>"Checked,Blocked,Failed,Untested"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="47.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="0.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="66"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-    </row>
-    <row r="5" spans="1:11" ht="12.75">
-      <c r="A5" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-    </row>
-    <row r="8" spans="1:11" ht="43.5" customHeight="1">
-      <c r="A8" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-    </row>
-    <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="A9" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="66"/>
-    </row>
-    <row r="12" spans="1:11" ht="117" customHeight="1">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A13" s="8">
-        <v>2</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="81"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="8">
-        <v>3</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="6">
-        <v>1234567</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="81"/>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="71.25" customHeight="1">
-      <c r="A15" s="8">
-        <v>4</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="80"/>
-      <c r="K15" s="81"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A16" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="12.75">
-      <c r="A17" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="79"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="A5:D5"/>
   </mergeCells>
-  <conditionalFormatting sqref="I12:I15">
-    <cfRule type="containsText" dxfId="495" priority="101" operator="containsText" text="Untested">
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="591" priority="36" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I15">
-    <cfRule type="containsText" dxfId="494" priority="102" operator="containsText" text="Checked">
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="590" priority="35" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I15">
-    <cfRule type="containsText" dxfId="493" priority="103" operator="containsText" text="Failed">
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="589" priority="34" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I15">
-    <cfRule type="containsText" dxfId="492" priority="104" operator="containsText" text="Blocked">
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="588" priority="33" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="491" priority="100" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="587" priority="32" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="490" priority="99" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="586" priority="31" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="489" priority="98" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="585" priority="30" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="488" priority="97" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="584" priority="29" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="487" priority="96" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="583" priority="28" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="486" priority="95" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="582" priority="27" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="485" priority="94" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="581" priority="26" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="484" priority="93" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="580" priority="25" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="483" priority="92" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="579" priority="24" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="482" priority="91" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="578" priority="23" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="481" priority="90" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="577" priority="22" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="480" priority="89" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="576" priority="21" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="479" priority="88" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="575" priority="20" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="478" priority="87" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="574" priority="19" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="477" priority="86" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="573" priority="18" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="476" priority="85" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="572" priority="17" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="475" priority="84" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="571" priority="16" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="474" priority="83" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="570" priority="15" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="473" priority="82" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="569" priority="14" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="472" priority="81" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="568" priority="13" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="471" priority="80" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="567" priority="12" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="470" priority="79" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="566" priority="11" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="469" priority="78" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="565" priority="10" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="468" priority="77" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="564" priority="9" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="467" priority="76" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="563" priority="8" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="466" priority="75" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="562" priority="7" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="465" priority="74" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="561" priority="6" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="464" priority="73" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="560" priority="5" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="463" priority="72" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="559" priority="4" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="462" priority="71" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="558" priority="3" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="461" priority="70" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="557" priority="2" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="460" priority="69" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="459" priority="68" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="458" priority="67" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="457" priority="66" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="456" priority="65" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="455" priority="64" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="454" priority="63" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="453" priority="62" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="452" priority="61" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="451" priority="60" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="450" priority="59" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="449" priority="58" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="448" priority="57" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="447" priority="56" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="446" priority="55" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="445" priority="54" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="444" priority="53" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="443" priority="52" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="442" priority="51" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="441" priority="50" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="440" priority="49" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="439" priority="48" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="438" priority="47" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="437" priority="46" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="436" priority="45" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="435" priority="44" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="434" priority="43" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="433" priority="42" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="432" priority="41" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="431" priority="40" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="430" priority="39" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="429" priority="38" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="428" priority="37" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="427" priority="36" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="426" priority="35" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="425" priority="34" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="424" priority="33" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="423" priority="32" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="422" priority="31" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="421" priority="30" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="420" priority="29" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="419" priority="28" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="418" priority="27" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="417" priority="26" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="416" priority="25" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="415" priority="24" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="414" priority="23" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="413" priority="22" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="412" priority="21" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="411" priority="20" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="410" priority="19" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="409" priority="18" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="408" priority="17" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="407" priority="16" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="406" priority="15" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="405" priority="14" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="404" priority="13" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="403" priority="12" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="402" priority="11" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="401" priority="10" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="400" priority="9" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="399" priority="8" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="398" priority="7" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="397" priority="6" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="396" priority="5" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="395" priority="4" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="394" priority="3" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="393" priority="2" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="392" priority="1" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="556" priority="1" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10643,7 +10646,918 @@
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1"/>
+    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1"/>
+    <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="0.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75">
+      <c r="A1" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75">
+      <c r="A2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" ht="12.75">
+      <c r="A5" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+    </row>
+    <row r="8" spans="1:11" ht="43.5" customHeight="1">
+      <c r="A8" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+    </row>
+    <row r="9" spans="1:11" ht="51" customHeight="1">
+      <c r="A9" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="73"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="63"/>
+      <c r="G11" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="63"/>
+    </row>
+    <row r="12" spans="1:11" ht="117" customHeight="1">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="77"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="31.5" customHeight="1">
+      <c r="A13" s="8">
+        <v>2</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
+    </row>
+    <row r="14" spans="1:11" ht="18" customHeight="1">
+      <c r="A14" s="8">
+        <v>3</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="14">
+        <v>12345678</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+    </row>
+    <row r="15" spans="1:11" ht="52.5" customHeight="1">
+      <c r="A15" s="8">
+        <v>4</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="86"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="93"/>
+    </row>
+    <row r="16" spans="1:11" ht="51.75" customHeight="1">
+      <c r="A16" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+    </row>
+    <row r="17" spans="1:11" ht="12.75">
+      <c r="A17" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I12:I15">
+    <cfRule type="containsText" dxfId="391" priority="84" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I15">
+    <cfRule type="containsText" dxfId="390" priority="83" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I15">
+    <cfRule type="containsText" dxfId="389" priority="82" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I15">
+    <cfRule type="containsText" dxfId="388" priority="81" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Test steps status: Checked, Blocked, Failed, Untested" sqref="I12:I15">
+      <formula1>"Checked,Blocked,Failed,Untested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1"/>
+    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1"/>
+    <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="0.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75">
+      <c r="A1" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75">
+      <c r="A2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" ht="12.75">
+      <c r="A5" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+    </row>
+    <row r="8" spans="1:11" ht="43.5" customHeight="1">
+      <c r="A8" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+    </row>
+    <row r="9" spans="1:11" ht="51" customHeight="1">
+      <c r="A9" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="73"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="63"/>
+      <c r="G11" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="63"/>
+    </row>
+    <row r="12" spans="1:11" ht="117" customHeight="1">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="77"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+    </row>
+    <row r="13" spans="1:11" ht="31.5" customHeight="1">
+      <c r="A13" s="8">
+        <v>2</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
+    </row>
+    <row r="14" spans="1:11" ht="18" customHeight="1">
+      <c r="A14" s="8">
+        <v>3</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="14">
+        <v>12345</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+    </row>
+    <row r="15" spans="1:11" ht="79.5" customHeight="1">
+      <c r="A15" s="8">
+        <v>4</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="86"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="93"/>
+    </row>
+    <row r="16" spans="1:11" ht="51.75" customHeight="1">
+      <c r="A16" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+    </row>
+    <row r="17" spans="1:11" ht="12.75">
+      <c r="A17" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I12:I15">
+    <cfRule type="containsText" dxfId="387" priority="24" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I15">
+    <cfRule type="containsText" dxfId="386" priority="23" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I15">
+    <cfRule type="containsText" dxfId="385" priority="22" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I15">
+    <cfRule type="containsText" dxfId="384" priority="21" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="383" priority="20" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="382" priority="19" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="381" priority="18" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="380" priority="17" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="379" priority="16" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="378" priority="15" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="377" priority="14" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="376" priority="13" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="375" priority="12" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="374" priority="11" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="373" priority="10" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="372" priority="9" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="371" priority="8" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="370" priority="7" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="369" priority="6" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="368" priority="5" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="367" priority="4" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="366" priority="3" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="365" priority="2" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="364" priority="1" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Test steps status: Checked, Blocked, Failed, Untested" sqref="I12:I15">
+      <formula1>"Checked,Blocked,Failed,Untested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -10664,305 +11578,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="A1" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="66"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="69" t="s">
+      <c r="A4" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="12.75">
-      <c r="A5" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="69" t="s">
+      <c r="A5" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="69" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="69" t="s">
+      <c r="A7" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="1:11" ht="43.5" customHeight="1">
-      <c r="A8" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73" t="s">
+      <c r="A8" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="A9" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="A9" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
       <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="66"/>
+        <v>33</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="63"/>
       <c r="D11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67" t="s">
+      <c r="F11" s="63"/>
+      <c r="G11" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="67" t="s">
+      <c r="J11" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="66"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="1:11" ht="117" customHeight="1">
       <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="50"/>
+      <c r="B12" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="76"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
+      <c r="E12" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="77"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="31.5" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
+    </row>
+    <row r="13" spans="1:11" ht="28.5" customHeight="1">
       <c r="A13" s="8">
         <v>2</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
+      <c r="B13" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="81"/>
+        <v>16</v>
+      </c>
+      <c r="J13" s="98"/>
+      <c r="K13" s="99"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1">
       <c r="A14" s="8">
         <v>3</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="14">
-        <v>12345678</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="B14" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="6">
+        <v>1234567</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="81"/>
-    </row>
-    <row r="15" spans="1:11" ht="52.5" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+    </row>
+    <row r="15" spans="1:11" ht="71.25" customHeight="1">
       <c r="A15" s="8">
         <v>4</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="58"/>
+      <c r="B15" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="55"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
+      <c r="E15" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="86"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="83"/>
+        <v>16</v>
+      </c>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
     </row>
     <row r="16" spans="1:11" ht="51.75" customHeight="1">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
     </row>
     <row r="17" spans="1:11" ht="12.75">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="79"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="B22" s="4"/>
@@ -10973,7 +11887,34 @@
       <c r="C23" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:K5"/>
     <mergeCell ref="A17:K17"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -10982,52 +11923,626 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <conditionalFormatting sqref="I12:I15">
-    <cfRule type="containsText" dxfId="391" priority="84" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="363" priority="124" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I15">
-    <cfRule type="containsText" dxfId="390" priority="83" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="362" priority="123" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I15">
-    <cfRule type="containsText" dxfId="389" priority="82" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="361" priority="122" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I15">
-    <cfRule type="containsText" dxfId="388" priority="81" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="360" priority="121" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="359" priority="120" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="358" priority="119" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="357" priority="118" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="356" priority="117" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="355" priority="116" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="354" priority="115" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="353" priority="114" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="352" priority="113" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="351" priority="112" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="350" priority="111" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="349" priority="110" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="348" priority="109" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="347" priority="108" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="346" priority="107" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="345" priority="106" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="344" priority="105" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="343" priority="104" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="342" priority="103" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="341" priority="102" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="340" priority="101" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="339" priority="100" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="338" priority="99" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="337" priority="98" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="336" priority="97" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="335" priority="96" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="334" priority="95" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="333" priority="94" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="332" priority="93" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="331" priority="92" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="330" priority="91" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="329" priority="90" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="328" priority="89" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="327" priority="88" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="326" priority="87" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="325" priority="86" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="324" priority="85" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="323" priority="84" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="322" priority="83" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="321" priority="82" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="320" priority="81" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="319" priority="80" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="318" priority="79" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="317" priority="78" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="316" priority="77" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="315" priority="76" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="314" priority="75" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="313" priority="74" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="312" priority="73" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="311" priority="72" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="310" priority="71" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="309" priority="70" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="308" priority="69" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="307" priority="68" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="306" priority="67" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="305" priority="66" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="304" priority="65" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="303" priority="64" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="302" priority="63" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="301" priority="62" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="300" priority="61" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="299" priority="60" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="298" priority="59" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="297" priority="58" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="296" priority="57" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="295" priority="56" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="294" priority="55" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="293" priority="54" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="292" priority="53" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="291" priority="52" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="290" priority="51" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="289" priority="50" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="288" priority="49" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="287" priority="48" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="286" priority="47" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="285" priority="46" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="284" priority="45" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="283" priority="44" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="282" priority="43" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="281" priority="42" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="280" priority="41" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="279" priority="40" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="278" priority="39" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="277" priority="38" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="276" priority="37" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="275" priority="36" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="274" priority="35" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="273" priority="34" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I15">
+    <cfRule type="containsText" dxfId="272" priority="33" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="271" priority="32" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="270" priority="31" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="269" priority="30" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="268" priority="29" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="267" priority="28" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="266" priority="27" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="265" priority="26" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="264" priority="25" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="263" priority="24" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="262" priority="23" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="261" priority="22" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="260" priority="21" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="259" priority="20" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="258" priority="19" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="257" priority="18" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="256" priority="17" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="255" priority="16" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="254" priority="15" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="253" priority="14" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="252" priority="13" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="251" priority="12" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="250" priority="11" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="249" priority="10" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="248" priority="9" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="247" priority="8" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="246" priority="7" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="245" priority="6" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="244" priority="5" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="243" priority="4" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="242" priority="3" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="241" priority="2" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="240" priority="1" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -11040,15 +12555,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11068,307 +12583,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="A1" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="66"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="69" t="s">
+      <c r="A4" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="12.75">
-      <c r="A5" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="69" t="s">
+      <c r="A5" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="69" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="69" t="s">
+      <c r="A7" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="1:11" ht="43.5" customHeight="1">
-      <c r="A8" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73" t="s">
+      <c r="A8" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="A9" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="A9" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
       <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="66"/>
+        <v>33</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="63"/>
       <c r="D11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67" t="s">
+      <c r="F11" s="63"/>
+      <c r="G11" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="67" t="s">
+      <c r="J11" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="66"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="1:11" ht="117" customHeight="1">
       <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="50"/>
+      <c r="B12" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="76"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
+      <c r="E12" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="77"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-    </row>
-    <row r="13" spans="1:11" ht="31.5" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
+    </row>
+    <row r="13" spans="1:11" ht="28.5" customHeight="1">
       <c r="A13" s="8">
         <v>2</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="58"/>
+      <c r="B13" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="55"/>
       <c r="D13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
+        <v>58</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="81"/>
+        <v>16</v>
+      </c>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1">
       <c r="A14" s="8">
         <v>3</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="14">
-        <v>12345</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="B14" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="6">
+        <v>1234567</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="81"/>
-    </row>
-    <row r="15" spans="1:11" ht="79.5" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+    </row>
+    <row r="15" spans="1:11" ht="71.25" customHeight="1">
       <c r="A15" s="8">
         <v>4</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="58"/>
+      <c r="B15" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="55"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
+      <c r="E15" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="86"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="83"/>
+        <v>16</v>
+      </c>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
     </row>
     <row r="16" spans="1:11" ht="51.75" customHeight="1">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
     </row>
     <row r="17" spans="1:11" ht="12.75">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="79"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="B22" s="4"/>
@@ -11380,1530 +12893,12 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A10:K10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E14:F14"/>
-  </mergeCells>
-  <conditionalFormatting sqref="I12:I15">
-    <cfRule type="containsText" dxfId="387" priority="24" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I15">
-    <cfRule type="containsText" dxfId="386" priority="23" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I15">
-    <cfRule type="containsText" dxfId="385" priority="22" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I15">
-    <cfRule type="containsText" dxfId="384" priority="21" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="383" priority="20" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="382" priority="19" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="381" priority="18" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="380" priority="17" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="379" priority="16" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="378" priority="15" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="377" priority="14" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="376" priority="13" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="375" priority="12" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="374" priority="11" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="373" priority="10" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="372" priority="9" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="371" priority="8" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="370" priority="7" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="369" priority="6" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="368" priority="5" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="367" priority="4" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="366" priority="3" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="365" priority="2" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="364" priority="1" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Test steps status: Checked, Blocked, Failed, Untested" sqref="I12:I15">
-      <formula1>"Checked,Blocked,Failed,Untested"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1"/>
-    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="0.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="66"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-    </row>
-    <row r="5" spans="1:11" ht="12.75">
-      <c r="A5" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-    </row>
-    <row r="8" spans="1:11" ht="43.5" customHeight="1">
-      <c r="A8" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-    </row>
-    <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="A9" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="66"/>
-    </row>
-    <row r="12" spans="1:11" ht="117" customHeight="1">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-    </row>
-    <row r="13" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A13" s="8">
-        <v>2</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="96"/>
-      <c r="K13" s="97"/>
-    </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1">
-      <c r="A14" s="8">
-        <v>3</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="6">
-        <v>1234567</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="81"/>
-    </row>
-    <row r="15" spans="1:11" ht="71.25" customHeight="1">
-      <c r="A15" s="8">
-        <v>4</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="80"/>
-      <c r="K15" s="81"/>
-    </row>
-    <row r="16" spans="1:11" ht="51.75" customHeight="1">
-      <c r="A16" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-    </row>
-    <row r="17" spans="1:11" ht="12.75">
-      <c r="A17" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E14:F14"/>
-  </mergeCells>
-  <conditionalFormatting sqref="I12:I15">
-    <cfRule type="containsText" dxfId="363" priority="124" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I15">
-    <cfRule type="containsText" dxfId="362" priority="123" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I15">
-    <cfRule type="containsText" dxfId="361" priority="122" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I15">
-    <cfRule type="containsText" dxfId="360" priority="121" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="359" priority="120" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="358" priority="119" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="357" priority="118" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="356" priority="117" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="355" priority="116" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="354" priority="115" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="353" priority="114" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="352" priority="113" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="351" priority="112" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="350" priority="111" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="349" priority="110" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="348" priority="109" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="347" priority="108" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="346" priority="107" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="345" priority="106" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="344" priority="105" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="343" priority="104" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="342" priority="103" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="341" priority="102" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="340" priority="101" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="339" priority="100" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="338" priority="99" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="337" priority="98" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="336" priority="97" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="335" priority="96" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="334" priority="95" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="333" priority="94" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="332" priority="93" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="331" priority="92" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="330" priority="91" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="329" priority="90" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="328" priority="89" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="327" priority="88" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="326" priority="87" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="325" priority="86" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="324" priority="85" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="323" priority="84" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="322" priority="83" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="321" priority="82" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="320" priority="81" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="319" priority="80" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="318" priority="79" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="317" priority="78" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="316" priority="77" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="315" priority="76" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="314" priority="75" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="313" priority="74" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="312" priority="73" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="311" priority="72" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="310" priority="71" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="309" priority="70" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="308" priority="69" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="307" priority="68" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="306" priority="67" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="305" priority="66" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="304" priority="65" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="303" priority="64" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="302" priority="63" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="301" priority="62" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="300" priority="61" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="299" priority="60" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="298" priority="59" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="297" priority="58" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="296" priority="57" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="295" priority="56" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="294" priority="55" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="293" priority="54" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="292" priority="53" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="291" priority="52" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="290" priority="51" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="289" priority="50" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="288" priority="49" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="287" priority="48" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="286" priority="47" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="285" priority="46" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="284" priority="45" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="283" priority="44" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="282" priority="43" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="281" priority="42" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="280" priority="41" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="279" priority="40" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="278" priority="39" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="277" priority="38" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="276" priority="37" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="275" priority="36" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="274" priority="35" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="273" priority="34" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I15">
-    <cfRule type="containsText" dxfId="272" priority="33" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="271" priority="32" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="270" priority="31" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="269" priority="30" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="268" priority="29" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="267" priority="28" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="266" priority="27" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="265" priority="26" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="264" priority="25" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="263" priority="24" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="262" priority="23" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="261" priority="22" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="260" priority="21" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="259" priority="20" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="258" priority="19" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="257" priority="18" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="256" priority="17" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="255" priority="16" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="254" priority="15" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="253" priority="14" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="252" priority="13" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="251" priority="12" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="250" priority="11" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="249" priority="10" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="248" priority="9" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="247" priority="8" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="246" priority="7" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="245" priority="6" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="244" priority="5" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="243" priority="4" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="242" priority="3" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="241" priority="2" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="240" priority="1" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH(("Blocked"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Test steps status: Checked, Blocked, Failed, Untested" sqref="I12:I15">
-      <formula1>"Checked,Blocked,Failed,Untested"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1"/>
-    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1"/>
-    <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="0.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="66"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-    </row>
-    <row r="5" spans="1:11" ht="12.75">
-      <c r="A5" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-    </row>
-    <row r="8" spans="1:11" ht="43.5" customHeight="1">
-      <c r="A8" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-    </row>
-    <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="A9" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="66"/>
-    </row>
-    <row r="12" spans="1:11" ht="117" customHeight="1">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-    </row>
-    <row r="13" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A13" s="8">
-        <v>2</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="81"/>
-    </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1">
-      <c r="A14" s="8">
-        <v>3</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="6">
-        <v>1234567</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="81"/>
-    </row>
-    <row r="15" spans="1:11" ht="71.25" customHeight="1">
-      <c r="A15" s="8">
-        <v>4</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="80"/>
-      <c r="K15" s="81"/>
-    </row>
-    <row r="16" spans="1:11" ht="51.75" customHeight="1">
-      <c r="A16" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-    </row>
-    <row r="17" spans="1:11" ht="12.75">
-      <c r="A17" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:K5"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="A17:K17"/>
     <mergeCell ref="B12:C12"/>
@@ -12920,12 +12915,20 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="I12:I15">
     <cfRule type="containsText" dxfId="239" priority="120" operator="containsText" text="Untested">
@@ -13541,8 +13544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13557,77 +13560,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="109" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="A1" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="28"/>
       <c r="B4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="113" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="30"/>
       <c r="B5" s="46" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="116">
+        <v>74</v>
+      </c>
+      <c r="E5" s="108">
         <v>43806</v>
       </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -13638,77 +13641,77 @@
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="119" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="117"/>
-      <c r="G6" s="118"/>
+        <v>75</v>
+      </c>
+      <c r="E6" s="111" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="30"/>
       <c r="B7" s="46" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="116">
+        <v>76</v>
+      </c>
+      <c r="E7" s="108">
         <v>43806</v>
       </c>
-      <c r="F7" s="117"/>
-      <c r="G7" s="118"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="110"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="51">
       <c r="A8" s="21"/>
       <c r="B8" s="19" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112"/>
+        <v>78</v>
+      </c>
+      <c r="E8" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="103"/>
+      <c r="G8" s="104"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1">
       <c r="A9" s="28"/>
       <c r="B9" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="102"/>
+        <v>80</v>
+      </c>
+      <c r="C9" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="114"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="108"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="120"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
@@ -13716,10 +13719,10 @@
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1">
       <c r="A11" s="39" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>1</v>
@@ -13746,15 +13749,15 @@
         <v>1</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="24" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="36"/>
@@ -13765,17 +13768,17 @@
         <v>2</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="37"/>
@@ -13786,17 +13789,17 @@
         <v>3</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C14" s="15">
         <v>1234567</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="37"/>
@@ -13810,15 +13813,15 @@
         <v>4</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="38"/>
@@ -13828,15 +13831,15 @@
       <c r="L15" s="34"/>
     </row>
     <row r="16" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
       <c r="H16" s="35"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
@@ -13844,15 +13847,15 @@
       <c r="L16" s="34"/>
     </row>
     <row r="17" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
       <c r="H17" s="43"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
@@ -13974,6 +13977,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A10:G10"/>
     <mergeCell ref="A2:G3"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="E8:G8"/>
@@ -13981,12 +13990,6 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <conditionalFormatting sqref="F12:F15">
     <cfRule type="containsText" dxfId="119" priority="120" operator="containsText" text="Untested">
